--- a/biology/Botanique/Olea_wightiana/Olea_wightiana.xlsx
+++ b/biology/Botanique/Olea_wightiana/Olea_wightiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea wightiana Wall. ex G. Don est un végétal appartenant au genre Olea. C'est un arbre peut atteindre 30 m et qui pousse en Inde. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique (taxon 22 Tetrapilus).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Olea dioica var. wightiana (Wall ex. G. Don) DC. (1844).
 O. heynana Wall ex. G. Don (1837). Type India.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Forme végétative : arbre jusqu'à 30 m de haut max. ;
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forme végétative : arbre jusqu'à 30 m de haut max. ;
 Sexualisation : androdioïque ;
 Ramure : jeunes pousses glabres ;
 Feuillage : feuilles légèrement coriaces, glabres ;
@@ -555,9 +574,43 @@
 limbe lancéolé à étroitement ovale, (5,5)9 à 14(-19) cm de long et large de (2-)4 à 6(-8) cm de large, la base est obtuse, atténuée sur le pétiole,
 bords entiers ou dentés avec 8 à 10 dents de 0,5 à 1 mm dans la moitié supérieure,
 apex est acuminé.
-Nervures : 6(-7) nervures primaires de part et d'autre de la nervure principale, sombre sur le dessus, obscure et légèrement saillante en dessous.
-Appareil reproducteur
-inflorescences : axillaires, cymeuse-paniculées de 2 à 5 cm de long, fleurs abondantes, glabres ;
+Nervures : 6(-7) nervures primaires de part et d'autre de la nervure principale, sombre sur le dessus, obscure et légèrement saillante en dessous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>inflorescences : axillaires, cymeuse-paniculées de 2 à 5 cm de long, fleurs abondantes, glabres ;
 pédicelles 1 à 2 mm de long.
 anatomie florale :
 Calice glabre, en tube de 0,25 delong, lobes triangulaires, légèrement ciliolés 0,25 mm de long ;
@@ -565,75 +618,147 @@
 étamines :
 anthères largement elliptiques, de 1 mm de longueur avec un filet de 0,25 mm de long, connective, sans appendice développé.
 ovaire en forme de bouteille, de 1 mm de long, style 0,5 mm de long, stigmate 0,25 mm de long, parfois bi-lobé ;
-fruit : drupe ellipsoïde-ovoïde de 10 à 12,7 par 7 à 8 mm.
-Répartition géographique
-Le matériel examiné provient de l'Inde (Ghats de l'Ouest, plateau du Deccan) :
+fruit : drupe ellipsoïde-ovoïde de 10 à 12,7 par 7 à 8 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le matériel examiné provient de l'Inde (Ghats de l'Ouest, plateau du Deccan) :
 Maharashtra : Kahneri (1985), Borivili (1985) ;
 Karnataka : Mableshawar (1920) ;
 Kerala : Ponmudi (1980) ;
-Tamil Nadu : Kodal Kanal (1979).
-Note botanique
-Olea wightiana a été, avec persistance, confondu avec O. dioica à cause de la nervuration de ses feuilles, la forme de l'apex des feuilles et les dents du bord des feuilles. Ces deux taxons occupent des aires géographiques distinctes. O. wightiana est une endémique des Ghats occidentaux.
+Tamil Nadu : Kodal Kanal (1979).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_wightiana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Note botanique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea wightiana a été, avec persistance, confondu avec O. dioica à cause de la nervuration de ses feuilles, la forme de l'apex des feuilles et les dents du bord des feuilles. Ces deux taxons occupent des aires géographiques distinctes. O. wightiana est une endémique des Ghats occidentaux.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Olea_wightiana</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_wightiana</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est recherchée par les amateurs de bonsais.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Olea_wightiana</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_wightiana</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
